--- a/data/case1/18/details_3.xlsx
+++ b/data/case1/18/details_3.xlsx
@@ -61,15 +61,15 @@
     <col min="3" max="3" width="3.140625" customWidth="true"/>
     <col min="4" max="4" width="3.140625" customWidth="true"/>
     <col min="5" max="5" width="3.140625" customWidth="true"/>
-    <col min="6" max="6" width="2.140625" customWidth="true"/>
+    <col min="6" max="6" width="3.140625" customWidth="true"/>
     <col min="7" max="7" width="3.140625" customWidth="true"/>
     <col min="8" max="8" width="3.140625" customWidth="true"/>
-    <col min="9" max="9" width="3.140625" customWidth="true"/>
+    <col min="9" max="9" width="2.140625" customWidth="true"/>
     <col min="10" max="10" width="3.140625" customWidth="true"/>
-    <col min="11" max="11" width="5.7109375" customWidth="true"/>
+    <col min="11" max="11" width="7.7109375" customWidth="true"/>
     <col min="12" max="12" width="5.7109375" customWidth="true"/>
     <col min="13" max="13" width="5.7109375" customWidth="true"/>
-    <col min="14" max="14" width="5.7109375" customWidth="true"/>
+    <col min="14" max="14" width="4.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -80,40 +80,40 @@
         <v>0</v>
       </c>
       <c r="C1" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E1" s="0">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F1" s="0">
+        <v>13</v>
+      </c>
+      <c r="G1" s="0">
+        <v>14</v>
+      </c>
+      <c r="H1" s="0">
+        <v>30</v>
+      </c>
+      <c r="I1" s="0">
         <v>3</v>
       </c>
-      <c r="G1" s="0">
-        <v>33</v>
-      </c>
-      <c r="H1" s="0">
-        <v>16</v>
-      </c>
-      <c r="I1" s="0">
-        <v>19</v>
-      </c>
       <c r="J1" s="0">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="K1" s="0">
-        <v>0.037999999999999999</v>
+        <v>0.082009999999999986</v>
       </c>
       <c r="L1" s="0">
-        <v>0.092999999999999999</v>
+        <v>0.051000000000000004</v>
       </c>
       <c r="M1" s="0">
-        <v>0.058999999999999997</v>
+        <v>0.032000000000000001</v>
       </c>
       <c r="N1" s="0">
-        <v>0.055</v>
+        <v>0.080000000000000002</v>
       </c>
     </row>
   </sheetData>
